--- a/Production/air-compressor-controller.xlsx
+++ b/Production/air-compressor-controller.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\projects\i3Detroit\air-compressor-controller\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D9B52D-11F4-4EE1-B48F-E19CA6AD9840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB568CEC-E33B-4DE7-8175-068C041EAA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="air-compressor-controller" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -31,9 +41,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -163,126 +170,72 @@
     <t>MCP23017_SO</t>
   </si>
   <si>
-    <t>D3,D2,D1,D11,D10,D9,D8,D7,D6,D5,D4</t>
-  </si>
-  <si>
     <t>D_SOD-323F</t>
   </si>
   <si>
     <t>PMEG3020EJ</t>
   </si>
   <si>
-    <t>U7,U6</t>
-  </si>
-  <si>
     <t>SMDIP-16_W9.53mm</t>
   </si>
   <si>
     <t>LTV-847S</t>
   </si>
   <si>
-    <t>J6,J3</t>
-  </si>
-  <si>
     <t>PinHeader_1x03_P2.54mm_Vertical_SMD_Pin1Left</t>
   </si>
   <si>
     <t>Conn_01x03</t>
   </si>
   <si>
-    <t>A_ENABLE1,A_BRKR_LED1,B_ENABLE1,B_BRKR_LED1,5V_LED1,B_CLOSE1,OFF_BTN1,RED_STACK1,A_CLOSE1,24V_LED1,3V3_LED1</t>
-  </si>
-  <si>
     <t>RED LED</t>
   </si>
   <si>
-    <t>C2,C1</t>
-  </si>
-  <si>
-    <t>R20,R19,R21,R9,R14,R33,R34,R5,R6,R13,R15,R8</t>
-  </si>
-  <si>
     <t>R_0603_1608Metric</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R16,R18,R17</t>
-  </si>
-  <si>
     <t>20K</t>
   </si>
   <si>
     <t>2K2</t>
   </si>
   <si>
-    <t>GREEN_STACK1,COMP_DIR_LED1,B_OPEN1,COMP_RX_LED1,A_OPEN1,COMP_LED1,ON_BTN1,COMP_TX_LED1</t>
-  </si>
-  <si>
     <t>GREEN LED</t>
   </si>
   <si>
-    <t>C6,C9,C7,C10,C8</t>
-  </si>
-  <si>
-    <t>K1,K2</t>
-  </si>
-  <si>
     <t>sonoff relay</t>
   </si>
   <si>
     <t>sonoff_relay</t>
   </si>
   <si>
-    <t>H2,H1</t>
-  </si>
-  <si>
     <t>MountingHole_3.2mm_M3_Pad</t>
   </si>
   <si>
     <t>MountingHole</t>
   </si>
   <si>
-    <t>R28,R29</t>
-  </si>
-  <si>
     <t>R_1206_3216Metric</t>
   </si>
   <si>
-    <t>Q5,Q4,Q1,Q2,Q3</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
     <t>AO3400A</t>
   </si>
   <si>
-    <t>R7,R4</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>R38,R44,R42</t>
-  </si>
-  <si>
     <t>1K2</t>
   </si>
   <si>
-    <t>R30,R11,R12,R31,R10</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
-    <t>C5,C11,C12</t>
-  </si>
-  <si>
-    <t>R43,R39,R45</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -295,9 +248,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
     <t>277-6923-ND</t>
   </si>
   <si>
@@ -325,9 +275,6 @@
     <t>785-1004-1-ND</t>
   </si>
   <si>
-    <t>Evan?</t>
-  </si>
-  <si>
     <t>CSR1206FTR500CT-ND</t>
   </si>
   <si>
@@ -349,9 +296,6 @@
     <t>732-8001-1-ND</t>
   </si>
   <si>
-    <t>R37,R36,R40,R41,R32,R35,R26,R25,R1,R2,R27,R22,R3,R23,R24</t>
-  </si>
-  <si>
     <t>0.1µF</t>
   </si>
   <si>
@@ -398,12 +342,309 @@
   </si>
   <si>
     <t>2449-J1001AS5VDC.20-ND</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>GREEN_STACK1</t>
+  </si>
+  <si>
+    <t>COMP_DIR_LED1</t>
+  </si>
+  <si>
+    <t>B_OPEN1</t>
+  </si>
+  <si>
+    <t>COMP_RX_LED1</t>
+  </si>
+  <si>
+    <t>A_OPEN1</t>
+  </si>
+  <si>
+    <t>COMP_LED1</t>
+  </si>
+  <si>
+    <t>ON_BTN1</t>
+  </si>
+  <si>
+    <t>COMP_TX_LED1</t>
+  </si>
+  <si>
+    <t>A_ENABLE1</t>
+  </si>
+  <si>
+    <t>A_BRKR_LED1</t>
+  </si>
+  <si>
+    <t>B_ENABLE1</t>
+  </si>
+  <si>
+    <t>B_BRKR_LED1</t>
+  </si>
+  <si>
+    <t>5V_LED1</t>
+  </si>
+  <si>
+    <t>B_CLOSE1</t>
+  </si>
+  <si>
+    <t>OFF_BTN1</t>
+  </si>
+  <si>
+    <t>RED_STACK1</t>
+  </si>
+  <si>
+    <t>A_CLOSE1</t>
+  </si>
+  <si>
+    <t>24V_LED1</t>
+  </si>
+  <si>
+    <t>3V3_LED1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,29 +1190,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H36" totalsRowShown="0">
-  <autoFilter ref="A1:H36">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="Amelia"/>
-        <filter val="Digikey"/>
-        <filter val="Evan?"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G115" totalsRowShown="0">
+  <autoFilter ref="A1:G115" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Bag"/>
         <filter val="i3Detroit"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
-    <sortCondition ref="H1:H36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G115">
+    <sortCondition ref="F1:F115"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Designator"/>
-    <tableColumn id="3" name="Package"/>
-    <tableColumn id="4" name="Quantity"/>
-    <tableColumn id="5" name="Designation" dataDxfId="0"/>
-    <tableColumn id="6" name="Supplier"/>
-    <tableColumn id="7" name="Part Number"/>
-    <tableColumn id="8" name="Source"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Designator"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Package"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Designation" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Supplier"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Part Number"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1273,30 +1511,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,864 +1546,2562 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>220</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>220</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" t="s">
+        <v>94</v>
+      </c>
+      <c r="G98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" t="s">
+        <v>94</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>68</v>
+      </c>
+      <c r="F101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s">
-        <v>96</v>
+      <c r="G115" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>